--- a/data/prge_brief_self.xlsx
+++ b/data/prge_brief_self.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon/BrICC Clinic/BrICC Terms/Spring 2020/pilot_data_2020/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C875855C-F809-E843-976F-CF1E928839FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD4FFCD-2DEA-1841-9F22-329184C63929}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35100" yWindow="6480" windowWidth="27640" windowHeight="15760" xr2:uid="{11FF7B4C-1621-664D-9969-2BAB396DB739}"/>
   </bookViews>
@@ -435,7 +435,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -475,7 +475,7 @@
         <v>55</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -486,7 +486,7 @@
         <v>53</v>
       </c>
       <c r="C4">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -497,7 +497,7 @@
         <v>61</v>
       </c>
       <c r="C5">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -508,7 +508,7 @@
         <v>61</v>
       </c>
       <c r="C6">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -519,7 +519,7 @@
         <v>62</v>
       </c>
       <c r="C7">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -546,7 +546,7 @@
         <v>60</v>
       </c>
       <c r="C10">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -557,7 +557,7 @@
         <v>58</v>
       </c>
       <c r="C11">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -573,7 +573,7 @@
         <v>60</v>
       </c>
       <c r="C13">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:3">

--- a/data/prge_brief_self.xlsx
+++ b/data/prge_brief_self.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon/BrICC Clinic/BrICC Terms/Spring 2020/pilot_data_2020/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD4FFCD-2DEA-1841-9F22-329184C63929}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB53688F-DA88-0545-A103-48C1E8126A90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35100" yWindow="6480" windowWidth="27640" windowHeight="15760" xr2:uid="{11FF7B4C-1621-664D-9969-2BAB396DB739}"/>
   </bookViews>
@@ -435,7 +435,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
